--- a/understanding-pq-joins-demo.xlsx
+++ b/understanding-pq-joins-demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A0BACF-C0C3-4BFD-A773-F7A5ACB6CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B467217A-B24B-4966-9142-34C2726725A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dept" sheetId="1" r:id="rId1"/>
@@ -723,17 +723,20 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="9.46484375" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1289,11 +1292,11 @@
         <v>1300</v>
       </c>
       <c r="G20">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f>_xlfn.XLOOKUP(emp[[#This Row],[dept_no]], dept[dept_no], dept[dept_title])</f>
-        <v>QUALITY ASSURANCE</v>
+        <v>110</v>
+      </c>
+      <c r="H20" s="3" t="e">
+        <f>_xlfn.XLOOKUP(emp[[#This Row],[dept_no]], dept[dept_no], dept[dept_title])</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">

--- a/understanding-pq-joins-demo.xlsx
+++ b/understanding-pq-joins-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385111EA-F91F-4B94-9C13-CAF38F0CF654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823A1FE-9757-4591-9FEA-73D3BB41D8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="joins-demo" sheetId="8" r:id="rId1"/>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -156,7 +150,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,8 +296,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BAC0FF4C-6CC6-4D31-9461-1B4F87FFABFB}" name="Table36" displayName="Table36" ref="A13:D18" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7420C9E-9B2E-4977-B409-D6D72393D0EC}" name="date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7AD9DED3-9137-4815-B278-4286C285496D}" name="country_id" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A7420C9E-9B2E-4977-B409-D6D72393D0EC}" name="date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7AD9DED3-9137-4815-B278-4286C285496D}" name="country_id" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{F3C824DD-1FF0-4777-BC8F-B6A5BA32CA0B}" name="units"/>
     <tableColumn id="4" xr3:uid="{E6DE667B-5C6B-4612-B7C0-4F7B91B8C1CE}" name="country_name"/>
   </tableColumns>
@@ -315,8 +308,8 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3230796F-C902-4D9C-9430-FE5D53402792}" name="Table367" displayName="Table367" ref="A23:D27" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0A4C5F58-DF41-40F0-BCF0-34E49D514897}" name="date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9DF97656-BEF4-4BA3-9E24-BBC46960ACE3}" name="country_id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0A4C5F58-DF41-40F0-BCF0-34E49D514897}" name="date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9DF97656-BEF4-4BA3-9E24-BBC46960ACE3}" name="country_id" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{0111E948-07F7-476F-8403-15A29A513AEE}" name="units"/>
     <tableColumn id="4" xr3:uid="{E816F9E8-99FA-416A-B8B1-638799B1819B}" name="country_name"/>
   </tableColumns>
@@ -327,8 +320,8 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{ADA9BE3D-1433-4F2D-A7CF-313B938E22E9}" name="Table368" displayName="Table368" ref="A32:D37" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{64C2D5A2-2048-4AB4-B011-A2533EE5A3B3}" name="date" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8825C628-2B28-4838-ABA3-317A86DBA426}" name="country_id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{64C2D5A2-2048-4AB4-B011-A2533EE5A3B3}" name="date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8825C628-2B28-4838-ABA3-317A86DBA426}" name="country_id" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{BD2CCE49-A172-4860-A50F-00B66522CDE8}" name="units"/>
     <tableColumn id="4" xr3:uid="{8F3DEA76-1C37-46E4-8EEF-9E7D5BCE0DEA}" name="country_name"/>
   </tableColumns>
@@ -339,8 +332,8 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{39A1E4A1-C63B-436B-A219-0A4CDC38A6C0}" name="Table3689" displayName="Table3689" ref="A42:D48" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E64CEB77-7200-47B2-9087-F097E338B4D5}" name="date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B45D1CB6-82E7-430A-A8D3-40FBE0241620}" name="country_id" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E64CEB77-7200-47B2-9087-F097E338B4D5}" name="date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B45D1CB6-82E7-430A-A8D3-40FBE0241620}" name="country_id" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E0DFACA2-9B3D-4517-8662-98D8D4736F81}" name="units"/>
     <tableColumn id="4" xr3:uid="{2A342D10-0B3D-49D9-A6E0-9EDDBA9A0B23}" name="country_name"/>
   </tableColumns>
@@ -730,10 +723,10 @@
         <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]],countries[country_id],countries[country_name],"")</f>
         <v/>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1290,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E7" si="0">_xlfn.IFNA(B3,"")</f>
+        <f t="shared" ref="E3:E6" si="0">_xlfn.IFNA(B3,"")</f>
         <v>2</v>
       </c>
       <c r="H3" s="3">
